--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\Папка с файлами Samsung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\.android\fmh-android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -545,9 +545,6 @@
     <t>8. Нажать на смену статуса заявки и сменить статус take to work(В работу)</t>
   </si>
   <si>
-    <t>Фактический результат:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Вход в приложение с валидными данными логина и пароля </t>
   </si>
   <si>
@@ -560,12 +557,6 @@
     <t>1. Установить приложение на эмуляторе/девайсе</t>
   </si>
   <si>
-    <t>Соответствует ожидаемому</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Соответствует ожидаемому</t>
-  </si>
-  <si>
     <t>3. В поле Пароль ввести: Password2</t>
   </si>
   <si>
@@ -584,9 +575,6 @@
     <t>Проверка календаря в разделах</t>
   </si>
   <si>
-    <t>Приложение установлено и запущено.</t>
-  </si>
-  <si>
     <t>1.Выбрать поле с календарем</t>
   </si>
   <si>
@@ -633,6 +621,75 @@
   </si>
   <si>
     <t>8. Информация сохранилась</t>
+  </si>
+  <si>
+    <t>Пользователь авторизован</t>
+  </si>
+  <si>
+    <t>Проверка раздела О приложении(About)</t>
+  </si>
+  <si>
+    <t>1. Перейти в раздел About</t>
+  </si>
+  <si>
+    <t>2. Выбрать ссылку под Privacy Policy</t>
+  </si>
+  <si>
+    <t>3.Выбрать ссылку под Terms of Use</t>
+  </si>
+  <si>
+    <t>1. Раздел открылся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Переход по ссылке на сторонний ресурс прошел успешно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.  Переход по ссылке на сторонний ресурс прошел успешно </t>
+  </si>
+  <si>
+    <t>4. Нажать кнопку Выйти</t>
+  </si>
+  <si>
+    <t>4. Выход из раздела прошел успешно</t>
+  </si>
+  <si>
+    <t>Проверка раздела цитаты(Love is all)</t>
+  </si>
+  <si>
+    <t>1.Выбрать раздел цитаты(бабочка)</t>
+  </si>
+  <si>
+    <t>1. Открывается раздел со всеми цитатами</t>
+  </si>
+  <si>
+    <t>2. Нажать на стрелку вниз</t>
+  </si>
+  <si>
+    <t>3. Нажать на стрелку вверх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Отобразилась полная информация о цитате </t>
+  </si>
+  <si>
+    <t>3. Свернулась полная информация о цитате</t>
+  </si>
+  <si>
+    <t>4. Раздел закрылся</t>
+  </si>
+  <si>
+    <t>Данную проверку можно осуществить вручную, главное чтобы работал функционал</t>
+  </si>
+  <si>
+    <t>Можно проверить при ручном тестировании</t>
+  </si>
+  <si>
+    <t>Комментарии:</t>
+  </si>
+  <si>
+    <t>Выполняется вручную</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выполняется вручную</t>
   </si>
 </sst>
 </file>
@@ -731,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -821,13 +878,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,39 +1090,82 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -949,6 +1219,32 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1232,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53:F54"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,72 +1570,72 @@
         <v>6</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>175</v>
+      <c r="E2" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="30"/>
+        <v>221</v>
+      </c>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1348,59 +1644,53 @@
       <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="10" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="29"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="30"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -1409,19 +1699,17 @@
       <c r="G7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="10" t="s">
         <v>82</v>
       </c>
@@ -1429,54 +1717,50 @@
         <v>83</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="15"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="19">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -1486,73 +1770,67 @@
         <v>81</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="14"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I13" s="14"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="15"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="19">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
@@ -1562,73 +1840,67 @@
         <v>91</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="10" t="s">
         <v>162</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18" s="15"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="19">
         <v>6</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1637,76 +1909,68 @@
       <c r="G19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="14"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="14"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="19">
         <v>7</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -1716,73 +1980,67 @@
         <v>91</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" s="14"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25" s="14"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="15"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="19">
         <v>8</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -1792,33 +2050,31 @@
         <v>91</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="14"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="10" t="s">
         <v>98</v>
       </c>
@@ -1826,37 +2082,35 @@
         <v>99</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="14"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I30" s="15"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="19">
         <v>9</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="11" t="s">
@@ -1866,73 +2120,67 @@
         <v>91</v>
       </c>
       <c r="H31" s="11"/>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="14"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="10" t="s">
         <v>163</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="14"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I34" s="15"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -1942,73 +2190,67 @@
         <v>91</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36" s="14"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I37" s="14"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="15"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I38" s="15"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="A39" s="19">
         <v>11</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -2018,81 +2260,75 @@
         <v>91</v>
       </c>
       <c r="H39" s="11"/>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="21" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="14"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="14"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="15"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="15"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
+      <c r="A43" s="19">
         <v>12</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="10" t="s">
@@ -2102,168 +2338,154 @@
         <v>107</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="21" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="14"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="14"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" s="14"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="15"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I46" s="15"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+      <c r="A47" s="19">
         <v>13</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="22" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>12</v>
+      <c r="E47" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I47" s="13" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="15"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="10" t="s">
         <v>110</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
+      <c r="H48" s="11"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
         <v>14</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>12</v>
+      <c r="E49" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="15"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22">
+      <c r="H50" s="11"/>
+      <c r="I50" s="36"/>
+    </row>
+    <row r="51" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
         <v>15</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="22" t="s">
+      <c r="C51" s="23"/>
+      <c r="D51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>12</v>
+      <c r="E51" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>165</v>
@@ -2271,81 +2493,75 @@
       <c r="G51" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I51" s="28" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="15"/>
+    <row r="52" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="39"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="10" t="s">
         <v>166</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I52" s="30"/>
-    </row>
-    <row r="53" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+      <c r="H52" s="11"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
         <v>16</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="22" t="s">
+      <c r="C53" s="49"/>
+      <c r="D53" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="38" t="s">
+      <c r="E53" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I53" s="40" t="s">
+      <c r="H53" s="11"/>
+      <c r="I53" s="55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="41"/>
-    </row>
-    <row r="55" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="I54" s="56"/>
+    </row>
+    <row r="55" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
         <v>17</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="22" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>12</v>
+      <c r="E55" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>168</v>
@@ -2353,43 +2569,39 @@
       <c r="G55" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I55" s="28" t="s">
+      <c r="H55" s="11"/>
+      <c r="I55" s="43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="15"/>
+    <row r="56" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="39"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="10" t="s">
         <v>169</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+      <c r="H56" s="11"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
         <v>18</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="22" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>12</v>
+      <c r="E57" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>170</v>
@@ -2397,217 +2609,208 @@
       <c r="G57" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I57" s="12" t="s">
+      <c r="H57" s="11"/>
+      <c r="I57" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="14"/>
+    <row r="58" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="12" t="s">
+      <c r="H58" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="14"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+    </row>
+    <row r="59" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I59" s="12" t="s">
+      <c r="H59" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="I59" s="62" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="14"/>
+      <c r="J59" s="59"/>
+    </row>
+    <row r="60" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I60" s="12" t="s">
+      <c r="H60" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="I60" s="63" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="14"/>
+      <c r="J60" s="59"/>
+    </row>
+    <row r="61" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I61" s="28" t="s">
+      <c r="H61" s="14"/>
+      <c r="I61" s="64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="14"/>
+      <c r="J61" s="59"/>
+    </row>
+    <row r="62" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="10" t="s">
         <v>46</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="29"/>
-    </row>
-    <row r="63" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="65"/>
+    </row>
+    <row r="63" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="22"/>
       <c r="F63" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="65"/>
+    </row>
+    <row r="64" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I64" s="29"/>
+        <v>180</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I65" s="29"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="14"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I66" s="29"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="14"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I67" s="29"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="15"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I68" s="30"/>
+        <v>181</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="66"/>
     </row>
     <row r="69" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31">
+      <c r="A69" s="46">
         <v>19</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="22" t="s">
+      <c r="C69" s="23"/>
+      <c r="D69" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>12</v>
+      <c r="E69" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>116</v>
@@ -2615,145 +2818,129 @@
       <c r="G69" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>14</v>
+      <c r="H69" s="11"/>
+      <c r="I69" s="44" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="14"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="10" t="s">
         <v>171</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I70" s="29"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="44"/>
     </row>
     <row r="71" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="14"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I71" s="29"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="44"/>
     </row>
     <row r="72" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="14"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" s="29"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="44"/>
     </row>
     <row r="73" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="14"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I73" s="29"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="44"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="14"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I74" s="29"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="44"/>
     </row>
     <row r="75" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="14"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I75" s="29"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="44"/>
     </row>
     <row r="76" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="10" t="s">
         <v>172</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I76" s="30"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="45"/>
     </row>
     <row r="77" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
+      <c r="A77" s="19">
         <v>20</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="22" t="s">
+      <c r="C77" s="23"/>
+      <c r="D77" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>12</v>
+      <c r="E77" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>118</v>
@@ -2761,60 +2948,54 @@
       <c r="G77" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I77" s="13" t="s">
+      <c r="H77" s="11"/>
+      <c r="I77" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="14"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I78" s="14"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="15"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="11" t="s">
         <v>122</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I79" s="15"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="36"/>
     </row>
     <row r="80" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
+      <c r="A80" s="19">
         <v>21</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="22" t="s">
+      <c r="C80" s="23"/>
+      <c r="D80" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>12</v>
+      <c r="E80" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>118</v>
@@ -2823,57 +3004,53 @@
         <v>119</v>
       </c>
       <c r="H80" s="11"/>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="14"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I81" s="14"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="22"/>
     </row>
     <row r="82" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="15"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="36"/>
       <c r="F82" s="11" t="s">
         <v>122</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I82" s="15"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="36"/>
     </row>
     <row r="83" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
+      <c r="A83" s="19">
         <v>22</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="22" t="s">
+      <c r="C83" s="23"/>
+      <c r="D83" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>12</v>
+      <c r="E83" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>118</v>
@@ -2882,57 +3059,53 @@
         <v>119</v>
       </c>
       <c r="H83" s="11"/>
-      <c r="I83" s="13" t="s">
+      <c r="I83" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I84" s="14"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="15"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="11" t="s">
         <v>122</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I85" s="15"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="36"/>
     </row>
     <row r="86" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
+      <c r="A86" s="19">
         <v>23</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="22" t="s">
+      <c r="C86" s="23"/>
+      <c r="D86" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>12</v>
+      <c r="E86" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>118</v>
@@ -2941,57 +3114,53 @@
         <v>119</v>
       </c>
       <c r="H86" s="11"/>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="14"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I87" s="14"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="15"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="11" t="s">
         <v>122</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I88" s="15"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="36"/>
     </row>
     <row r="89" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
+      <c r="A89" s="19">
         <v>24</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="22" t="s">
+      <c r="C89" s="23"/>
+      <c r="D89" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>12</v>
+      <c r="E89" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>118</v>
@@ -3000,142 +3169,128 @@
         <v>119</v>
       </c>
       <c r="H89" s="11"/>
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="14"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I90" s="14"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="22"/>
     </row>
     <row r="91" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="14"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I91" s="14"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="22"/>
     </row>
     <row r="92" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="14"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="10" t="s">
         <v>140</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I92" s="14"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="17"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I93" s="14"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="14"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="10" t="s">
         <v>144</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I94" s="14"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="17"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="14"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I95" s="14"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="22"/>
     </row>
     <row r="96" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="18"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="15"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="36"/>
       <c r="F96" s="10" t="s">
         <v>147</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I96" s="15"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
+      <c r="A97" s="19">
         <v>25</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="22" t="s">
+      <c r="C97" s="23"/>
+      <c r="D97" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>12</v>
+      <c r="E97" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>118</v>
@@ -3144,16 +3299,16 @@
         <v>119</v>
       </c>
       <c r="H97" s="11"/>
-      <c r="I97" s="13" t="s">
+      <c r="I97" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="14"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="10" t="s">
         <v>137</v>
       </c>
@@ -3161,14 +3316,14 @@
         <v>138</v>
       </c>
       <c r="H98" s="11"/>
-      <c r="I98" s="14"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="14"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="10" t="s">
         <v>150</v>
       </c>
@@ -3176,14 +3331,14 @@
         <v>151</v>
       </c>
       <c r="H99" s="11"/>
-      <c r="I99" s="14"/>
+      <c r="I99" s="22"/>
     </row>
     <row r="100" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="14"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="10" t="s">
         <v>140</v>
       </c>
@@ -3191,14 +3346,14 @@
         <v>141</v>
       </c>
       <c r="H100" s="11"/>
-      <c r="I100" s="14"/>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="17"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="14"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="10" t="s">
         <v>152</v>
       </c>
@@ -3206,14 +3361,14 @@
         <v>143</v>
       </c>
       <c r="H101" s="11"/>
-      <c r="I101" s="14"/>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="17"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="14"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="10" t="s">
         <v>153</v>
       </c>
@@ -3221,14 +3376,14 @@
         <v>24</v>
       </c>
       <c r="H102" s="11"/>
-      <c r="I102" s="14"/>
+      <c r="I102" s="22"/>
     </row>
     <row r="103" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="17"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="10" t="s">
         <v>145</v>
       </c>
@@ -3236,38 +3391,36 @@
         <v>146</v>
       </c>
       <c r="H103" s="11"/>
-      <c r="I103" s="14"/>
+      <c r="I103" s="22"/>
     </row>
     <row r="104" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="15"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="36"/>
       <c r="F104" s="10" t="s">
         <v>147</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I104" s="15"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="36"/>
     </row>
     <row r="105" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16">
+      <c r="A105" s="19">
         <v>26</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="22" t="s">
+      <c r="C105" s="23"/>
+      <c r="D105" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="13" t="s">
-        <v>12</v>
+      <c r="E105" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>56</v>
@@ -3275,324 +3428,434 @@
       <c r="G105" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I105" s="13" t="s">
+      <c r="H105" s="11"/>
+      <c r="I105" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="14"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H106" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I106" s="14"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="22"/>
     </row>
     <row r="107" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="14"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I107" s="15"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="36"/>
     </row>
     <row r="108" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="14"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H108" s="11"/>
+      <c r="H108" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="I108" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="17"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="14"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="H109" s="11"/>
       <c r="I109" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="14"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H110" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="H110" s="11"/>
       <c r="I110" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="14"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H111" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="H111" s="11"/>
       <c r="I111" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="14"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="H112" s="11"/>
       <c r="I112" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="14"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H113" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="H113" s="11"/>
       <c r="I113" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="15"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="36"/>
       <c r="F114" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H114" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="H114" s="11"/>
       <c r="I114" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
+      <c r="A115" s="19">
         <v>27</v>
       </c>
-      <c r="B115" s="25" t="s">
+      <c r="B115" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="20"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C115" s="19"/>
-      <c r="D115" s="22" t="s">
+      <c r="H116" s="11"/>
+      <c r="I116" s="22"/>
+    </row>
+    <row r="117" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="20"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H117" s="11"/>
+      <c r="I117" s="22"/>
+    </row>
+    <row r="118" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="20"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H118" s="11"/>
+      <c r="I118" s="22"/>
+    </row>
+    <row r="119" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="20"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="22"/>
+    </row>
+    <row r="120" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="20"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H120" s="11"/>
+      <c r="I120" s="22"/>
+    </row>
+    <row r="121" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="20"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H121" s="11"/>
+      <c r="I121" s="22"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="37"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H122" s="11"/>
+      <c r="I122" s="36"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19">
+        <v>28</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="23"/>
+      <c r="D123" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="13" t="s">
+      <c r="E123" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H123" s="11"/>
+      <c r="I123" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I116" s="14"/>
-    </row>
-    <row r="117" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I117" s="14"/>
-    </row>
-    <row r="118" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I118" s="14"/>
-    </row>
-    <row r="119" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I119" s="14"/>
-    </row>
-    <row r="120" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I120" s="14"/>
-    </row>
-    <row r="121" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="11" t="s">
+    <row r="124" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="20"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H124" s="11"/>
+      <c r="I124" s="22"/>
+    </row>
+    <row r="125" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="20"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H125" s="11"/>
+      <c r="I125" s="22"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="20"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H126" s="11"/>
+      <c r="I126" s="22"/>
+    </row>
+    <row r="127" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="33">
+        <v>29</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G121" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I121" s="14"/>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I122" s="15"/>
+      <c r="F127" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="34"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="28"/>
+    </row>
+    <row r="129" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="34"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H129" s="17"/>
+      <c r="I129" s="28"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="35"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H130" s="18"/>
+      <c r="I130" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="163">
+  <mergeCells count="175">
     <mergeCell ref="A115:A122"/>
     <mergeCell ref="B115:B122"/>
     <mergeCell ref="C115:C122"/>
@@ -3756,6 +4019,18 @@
     <mergeCell ref="C89:C96"/>
     <mergeCell ref="D89:D96"/>
     <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="I123:I126"/>
+    <mergeCell ref="I127:I130"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
